--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/67.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/67.xlsx
@@ -479,13 +479,13 @@
         <v>-2.753104763871203</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.203377203858466</v>
+        <v>-4.71183917077562</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.015338757184399</v>
+        <v>-6.909980659202382</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.199101676415566</v>
+        <v>-8.110114508865196</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.696411217383139</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.882787821133036</v>
+        <v>-5.673008142797364</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.742463727914409</v>
+        <v>-6.47349990413795</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.01212396235605</v>
+        <v>-9.295913790394216</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.769660838669062</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.733680354264648</v>
+        <v>-6.708470463168749</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.641999525806174</v>
+        <v>-6.043550862247716</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.49885392999864</v>
+        <v>-10.47690228916619</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.960965879197417</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.1810489276217</v>
+        <v>-7.441371704574236</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.229694909698635</v>
+        <v>-5.398250845883611</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.99211561081542</v>
+        <v>-11.35095893683324</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.241859244948615</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.07346379607402</v>
+        <v>-8.358666728972285</v>
       </c>
       <c r="F6" t="n">
-        <v>-6.022396129534575</v>
+        <v>-5.121357052969016</v>
       </c>
       <c r="G6" t="n">
-        <v>-11.40288018975988</v>
+        <v>-12.47028239199282</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.581503326072654</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.65071372585753</v>
+        <v>-8.888209729748445</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.858252612984773</v>
+        <v>-4.814571872070103</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.64250508332798</v>
+        <v>-13.47612710876444</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.944137145909239</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.38402075483297</v>
+        <v>-9.639527860021598</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.643576321458537</v>
+        <v>-4.487785764078642</v>
       </c>
       <c r="G8" t="n">
-        <v>-11.92954356549143</v>
+        <v>-14.53099878639747</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.30040885752388</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.62633460217788</v>
+        <v>-9.877216706870403</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.505192982090509</v>
+        <v>-4.262426992548197</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.09933877397938</v>
+        <v>-15.0356909652691</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.618522487709698</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.07396718190575</v>
+        <v>-10.07563705056415</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.300788493991662</v>
+        <v>-4.196474289913514</v>
       </c>
       <c r="G10" t="n">
-        <v>-12.22780231841444</v>
+        <v>-15.74368760569452</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.878118651862761</v>
       </c>
       <c r="E11" t="n">
-        <v>-13.33680508007796</v>
+        <v>-10.25793833861767</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.558884055502969</v>
+        <v>-4.535018459419907</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.76458847380172</v>
+        <v>-15.67900115583837</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.065195505239188</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.0221607297027</v>
+        <v>-10.73685078428006</v>
       </c>
       <c r="F12" t="n">
-        <v>-5.150754651259776</v>
+        <v>-4.081934637035431</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.44763904762649</v>
+        <v>-15.45228324039893</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.171908997734982</v>
       </c>
       <c r="E13" t="n">
-        <v>-14.73581884008001</v>
+        <v>-11.30860058133829</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.099552082342576</v>
+        <v>-4.234896994880599</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.83952970649901</v>
+        <v>-14.80404493090781</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.204018967782084</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.32969139321103</v>
+        <v>-11.72719734928355</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.161046010714632</v>
+        <v>-4.467926618185233</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.34701115472599</v>
+        <v>-13.86744810739918</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.168086348074289</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.09732902840595</v>
+        <v>-12.32494199585317</v>
       </c>
       <c r="F15" t="n">
-        <v>-5.106269577777717</v>
+        <v>-4.276424219208175</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.295317331556452</v>
+        <v>-12.23035437999897</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.079200384095596</v>
       </c>
       <c r="E16" t="n">
-        <v>-16.82132738830678</v>
+        <v>-12.83192711894539</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.947533302822722</v>
+        <v>-4.177617390427823</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.48388397284771</v>
+        <v>-10.89080561051921</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.950254908052011</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.52923113760173</v>
+        <v>-13.49105324672913</v>
       </c>
       <c r="F17" t="n">
-        <v>-4.67876503932094</v>
+        <v>-3.809846737871013</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.714701411482849</v>
+        <v>-9.658076752074674</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.793576136573446</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.36508997461758</v>
+        <v>-14.06776049675041</v>
       </c>
       <c r="F18" t="n">
-        <v>-4.374536809013423</v>
+        <v>-3.61470691778497</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.897714140973293</v>
+        <v>-8.008335163909761</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.627314023816546</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.22647920549246</v>
+        <v>-14.96857467900009</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.113248726018021</v>
+        <v>-3.227849582419724</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.981968931752055</v>
+        <v>-6.295579166237181</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.462740918236559</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.1364602756176</v>
+        <v>-15.98513120981712</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.824973325117248</v>
+        <v>-2.800330376942346</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.340374782593073</v>
+        <v>-4.85205588771874</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.318820980310818</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.77392321397404</v>
+        <v>-16.49208210986126</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.538418854633629</v>
+        <v>-2.422028803594201</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.105516670720212</v>
+        <v>-3.967414540184815</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.209958339214015</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.60507393737705</v>
+        <v>-17.33616425642726</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.543967877427578</v>
+        <v>-2.387923091690603</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.767060503337424</v>
+        <v>-3.11730424815191</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.148206592744939</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.87092835278616</v>
+        <v>-17.63947824245066</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.358664739157767</v>
+        <v>-2.197066041619977</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.594498116962794</v>
+        <v>-2.568581673436844</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.147720976470406</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.36887859118831</v>
+        <v>-18.18912972847044</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.343601709000803</v>
+        <v>-2.144910116363728</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.786372080461738</v>
+        <v>-2.591276443313063</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.207670909870166</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.9411515119813</v>
+        <v>-18.94440306529894</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.135036676058211</v>
+        <v>-1.91369431460672</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.803566717612678</v>
+        <v>-2.667320056121058</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.333926150316008</v>
       </c>
       <c r="E26" t="n">
-        <v>-23.28975725761981</v>
+        <v>-19.18077676930054</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.055111191797885</v>
+        <v>-1.895829883515013</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.949073339985801</v>
+        <v>-2.615271689015882</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.523241987910843</v>
       </c>
       <c r="E27" t="n">
-        <v>-23.34725197837473</v>
+        <v>-19.36903775672483</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.24963010801183</v>
+        <v>-2.144577663896778</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.045249883071752</v>
+        <v>-3.009887878278922</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.770319999636587</v>
       </c>
       <c r="E28" t="n">
-        <v>-23.30715723305916</v>
+        <v>-19.39380057650576</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.197620852961589</v>
+        <v>-2.087747848075759</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.293288757457814</v>
+        <v>-3.700704548574004</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.071290537573527</v>
       </c>
       <c r="E29" t="n">
-        <v>-23.13162233050944</v>
+        <v>-19.31991301572607</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.419459539547855</v>
+        <v>-2.427093814708325</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.646700396846495</v>
+        <v>-4.44725100814505</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.40687108785885</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.90617066784853</v>
+        <v>-19.07893386725583</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.493581772657152</v>
+        <v>-2.485140993239207</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.964348951003694</v>
+        <v>-5.215411767074726</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.766251730087887</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.81868677897195</v>
+        <v>-19.1924272726644</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.5929801712684</v>
+        <v>-2.545129107496253</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.210006879045569</v>
+        <v>-5.870455574124592</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.128292366140924</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.88735776942464</v>
+        <v>-19.28962561818553</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.634311835321299</v>
+        <v>-2.702085783951691</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.3924401702845</v>
+        <v>-6.589120027533622</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.470909783143131</v>
       </c>
       <c r="E33" t="n">
-        <v>-22.77344879843239</v>
+        <v>-19.17157076937014</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.60958812759531</v>
+        <v>-2.734064777868181</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.603307925461409</v>
+        <v>-7.434839991400037</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.774861523912658</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.05694039705167</v>
+        <v>-18.520394166752</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.647712603143513</v>
+        <v>-2.772922604446421</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.747528739028533</v>
+        <v>-7.919462797082981</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.019935158203106</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.78189953773963</v>
+        <v>-18.09693283697416</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.526792796304105</v>
+        <v>-2.712548258646888</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.794961883651341</v>
+        <v>-8.310016221639614</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.200848785835155</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.49289567481569</v>
+        <v>-17.72477674525773</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.810252525440967</v>
+        <v>-2.97643729329549</v>
       </c>
       <c r="G36" t="n">
-        <v>-6.810489369460663</v>
+        <v>-8.518747480815682</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.310164615203789</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.16266770598992</v>
+        <v>-17.37421050786559</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.516638329041523</v>
+        <v>-2.589218171422092</v>
       </c>
       <c r="G37" t="n">
-        <v>-6.946164199024421</v>
+        <v>-8.800197828130241</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.347901473015589</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.74758613398197</v>
+        <v>-16.89028683016462</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.624323594292192</v>
+        <v>-2.691716200386964</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.791744917132911</v>
+        <v>-8.763960509232668</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.317368827752667</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.24566113299702</v>
+        <v>-16.48884558731536</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.452264775624854</v>
+        <v>-2.580158841697699</v>
       </c>
       <c r="G39" t="n">
-        <v>-6.782245576790496</v>
+        <v>-8.733076652854367</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.217285800981382</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.79250397550954</v>
+        <v>-15.94760808211355</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.405970769602036</v>
+        <v>-2.489233091986814</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.508984315978019</v>
+        <v>-8.520478189246569</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.056061664444502</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.22413737120321</v>
+        <v>-15.30447878479835</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.271254185384195</v>
+        <v>-2.20165681906801</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.597622010475186</v>
+        <v>-8.646790570660183</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.837679811226526</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.73393620868511</v>
+        <v>-14.81890751178323</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.118247826477225</v>
+        <v>-2.011811793418836</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.231968297891751</v>
+        <v>-8.123652168879683</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.569891546931015</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.30404094587042</v>
+        <v>-14.33236332640158</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.226935338135611</v>
+        <v>-2.245252093300291</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.247266000378327</v>
+        <v>-7.904062425452199</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.262768669725548</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.76465148526429</v>
+        <v>-13.9985761605767</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.183843631610622</v>
+        <v>-2.137420157843615</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.089923092380404</v>
+        <v>-7.341259510960418</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.918702169365257</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.27610280706721</v>
+        <v>-13.42715392697855</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.133789979307148</v>
+        <v>-2.171731208035624</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.796416454132032</v>
+        <v>-6.763579348572614</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.549260621718433</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.57462321279539</v>
+        <v>-12.79133858393626</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.250197232808392</v>
+        <v>-2.274894141934396</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.630077773498985</v>
+        <v>-6.340367358144989</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.158087417782373</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.1055376709355</v>
+        <v>-12.4101720525641</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.364081758766309</v>
+        <v>-2.39692864233946</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.824518465603059</v>
+        <v>-6.315526314254194</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.752529441978597</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.32107696311153</v>
+        <v>-11.54592764167895</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.490345250111254</v>
+        <v>-2.515790177287896</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.513284288455253</v>
+        <v>-5.485157831949891</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.342280825986413</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.97479838474168</v>
+        <v>-11.22056912369262</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.645683665293743</v>
+        <v>-2.872472562270543</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.385583429091435</v>
+        <v>-5.014654478098598</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.92986966907881</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.3950892845041</v>
+        <v>-10.74227758190233</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.764286082878233</v>
+        <v>-3.028246099064187</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.650543156243891</v>
+        <v>-5.140072171255567</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.527408428656364</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.00980620935</v>
+        <v>-10.35784030493621</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.693307481184362</v>
+        <v>-3.034621364018645</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.670089405697817</v>
+        <v>-4.859951633808808</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.140693095526549</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.47307147947261</v>
+        <v>-9.904076910597233</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.645585885156405</v>
+        <v>-3.07529301214451</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.456640254895177</v>
+        <v>-4.431474182985515</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.778767405561512</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.18881973122331</v>
+        <v>-9.75132966905421</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.688633590619591</v>
+        <v>-3.145851159247826</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.538741347211279</v>
+        <v>-4.500066949328332</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.451025611396116</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.63016269455467</v>
+        <v>-9.239944439781773</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.583529720994653</v>
+        <v>-3.199776904989899</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.723721811027874</v>
+        <v>-4.490714279191923</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.157751555450679</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.16025579954114</v>
+        <v>-8.715363780975533</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.825902236421962</v>
+        <v>-3.556351731821473</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.899462051865998</v>
+        <v>-4.832245631894001</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.902247583427846</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.9230607423859</v>
+        <v>-8.601489033031351</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.940622782554121</v>
+        <v>-3.662399179771725</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.202326249257645</v>
+        <v>-5.0908447611126</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.680326456864479</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.54580052750041</v>
+        <v>-8.277738998304242</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.819287410131026</v>
+        <v>-3.579530513377517</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.316377001449037</v>
+        <v>-5.184190569222608</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.491562528728841</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.12779532938604</v>
+        <v>-7.9427931378519</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.936242232401365</v>
+        <v>-3.554009897532221</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.784924752553565</v>
+        <v>-5.796807574681385</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.336824228456703</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.87102957774254</v>
+        <v>-7.670553679474607</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.992089357842135</v>
+        <v>-3.725325587155788</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.060620738785766</v>
+        <v>-6.339042437284055</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.212501110982137</v>
       </c>
       <c r="E60" t="n">
-        <v>-10.57911675573278</v>
+        <v>-7.634081688247422</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.91297055971485</v>
+        <v>-3.756434337849968</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.346060515703728</v>
+        <v>-6.865705813015601</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.119725809989579</v>
       </c>
       <c r="E61" t="n">
-        <v>-10.46781362540059</v>
+        <v>-7.51424724093247</v>
       </c>
       <c r="F61" t="n">
-        <v>-4.010926701300358</v>
+        <v>-3.84969214383637</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.521874091644857</v>
+        <v>-7.142946725417747</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.055548840963737</v>
       </c>
       <c r="E62" t="n">
-        <v>-10.13554205170445</v>
+        <v>-7.254176520646928</v>
       </c>
       <c r="F62" t="n">
-        <v>-4.057685162975533</v>
+        <v>-3.971775534310103</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.856350607437976</v>
+        <v>-7.646411763565781</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.020913520204628</v>
       </c>
       <c r="E63" t="n">
-        <v>-9.990959451629179</v>
+        <v>-7.109608587592254</v>
       </c>
       <c r="F63" t="n">
-        <v>-4.066270259033836</v>
+        <v>-3.953950215273331</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.816534535513821</v>
+        <v>-7.628429996309268</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.014928182535215</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.11529667426856</v>
+        <v>-7.290301392386564</v>
       </c>
       <c r="F64" t="n">
-        <v>-4.133665218694258</v>
+        <v>-3.992221361027541</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.998434925004259</v>
+        <v>-7.862774762461102</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.035735911790299</v>
       </c>
       <c r="E65" t="n">
-        <v>-9.854238374595903</v>
+        <v>-7.116306526999927</v>
       </c>
       <c r="F65" t="n">
-        <v>-4.094577608793273</v>
+        <v>-3.904170347354403</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.159913932811593</v>
+        <v>-8.140885918085559</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.082349558021846</v>
       </c>
       <c r="E66" t="n">
-        <v>-9.998605858369034</v>
+        <v>-7.420559202341778</v>
       </c>
       <c r="F66" t="n">
-        <v>-4.182061497669849</v>
+        <v>-4.008311082626559</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.16368824611285</v>
+        <v>-8.140372572364534</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.149842575359441</v>
       </c>
       <c r="E67" t="n">
-        <v>-9.861723444109149</v>
+        <v>-7.348583243247057</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.414015539463762</v>
+        <v>-4.316284292194132</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.085165906823329</v>
+        <v>-8.060026633513653</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.236218641993595</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.05425253452826</v>
+        <v>-7.559362996300361</v>
       </c>
       <c r="F68" t="n">
-        <v>-4.314230909310028</v>
+        <v>-4.131704726940625</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.048767250699148</v>
+        <v>-8.077529278097208</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.335902693001007</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.20963006176568</v>
+        <v>-7.784213311116646</v>
       </c>
       <c r="F69" t="n">
-        <v>-4.365599704460703</v>
+        <v>-4.200087265988165</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.022180831356865</v>
+        <v>-7.883763268940768</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.442613875664756</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.27730369481752</v>
+        <v>-8.154976035876008</v>
       </c>
       <c r="F70" t="n">
-        <v>-4.250439147710521</v>
+        <v>-3.958364988474155</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.015336221743183</v>
+        <v>-7.951446680006339</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.548859741128802</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.57554778071993</v>
+        <v>-8.476130007956783</v>
       </c>
       <c r="F71" t="n">
-        <v>-4.322728003244726</v>
+        <v>-4.040700753119871</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.157523208453672</v>
+        <v>-8.059821295225243</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.645390724833212</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.90498373043326</v>
+        <v>-9.004054747459994</v>
       </c>
       <c r="F72" t="n">
-        <v>-4.269921840075177</v>
+        <v>-4.077441639724736</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.114568394120957</v>
+        <v>-8.026634716612623</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.725664908114604</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.14228145673271</v>
+        <v>-9.364037212077809</v>
       </c>
       <c r="F73" t="n">
-        <v>-4.54282620338637</v>
+        <v>-4.308588995385608</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.933020013124937</v>
+        <v>-7.768231147668701</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.782927051104051</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.5443533814678</v>
+        <v>-9.900317264316577</v>
       </c>
       <c r="F74" t="n">
-        <v>-4.565022294562164</v>
+        <v>-4.271276094977313</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.816822986918969</v>
+        <v>-7.462262430916563</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.812847249854591</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.84003562777195</v>
+        <v>-10.28046199325355</v>
       </c>
       <c r="F75" t="n">
-        <v>-4.589032207285583</v>
+        <v>-4.343770288799928</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.762183446174327</v>
+        <v>-7.159290675373843</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.813556709756857</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.16276386006387</v>
+        <v>-10.5789065284375</v>
       </c>
       <c r="F76" t="n">
-        <v>-4.57399851116982</v>
+        <v>-4.38549307340218</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.560717251202496</v>
+        <v>-6.921665385614309</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.782941395896682</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.67063878240586</v>
+        <v>-11.2128444928429</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.703009624373971</v>
+        <v>-4.574741640213591</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.492442270306029</v>
+        <v>-6.644576032425038</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.722823491955444</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.07999532737265</v>
+        <v>-11.72759824784664</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.707571067780803</v>
+        <v>-4.584641879119093</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.412570565121239</v>
+        <v>-6.605415087421049</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.634499541650465</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.85110415744308</v>
+        <v>-12.42324525692623</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.893187102490096</v>
+        <v>-4.958342897005472</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.327682738890995</v>
+        <v>-6.377714481601352</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.51934851835737</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.38698331111876</v>
+        <v>-13.04456958361499</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.939070431936092</v>
+        <v>-5.014454028817054</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.99755743920943</v>
+        <v>-6.032804825154236</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.381777907715047</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.89713651066073</v>
+        <v>-13.55431699558701</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.908489693983539</v>
+        <v>-4.993465522337388</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.897489246657415</v>
+        <v>-5.682463482077978</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.225963847012553</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.60814477931617</v>
+        <v>-14.27172497423124</v>
       </c>
       <c r="F82" t="n">
-        <v>-5.060479139462192</v>
+        <v>-5.208625825543448</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.019714418330289</v>
+        <v>-5.711909970437407</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.059414429545535</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.26924117686728</v>
+        <v>-14.86933272860859</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.265905429996224</v>
+        <v>-5.48500138373015</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.870076585154623</v>
+        <v>-5.592295528431466</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.8886659629166809</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.12609829837653</v>
+        <v>-15.79948095205976</v>
       </c>
       <c r="F84" t="n">
-        <v>-5.292452737283572</v>
+        <v>-5.634516991734143</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.674697203732101</v>
+        <v>-5.353804884456488</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.722012461940949</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.29784657417003</v>
+        <v>-16.93353498490935</v>
       </c>
       <c r="F85" t="n">
-        <v>-5.216096228036094</v>
+        <v>-5.670392524123566</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.566542593822208</v>
+        <v>-5.172706292092224</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5689611964431495</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.43086413756384</v>
+        <v>-18.08126845897257</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.384693629841657</v>
+        <v>-5.915282878087335</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.496390234288846</v>
+        <v>-4.968399584130715</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4379976089673837</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.52513632153734</v>
+        <v>-19.20362309838963</v>
       </c>
       <c r="F87" t="n">
-        <v>-5.370202613488121</v>
+        <v>-6.067370103703325</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.475484840925917</v>
+        <v>-5.046354798623674</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3396844293822538</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.68800127185366</v>
+        <v>-20.18043200337864</v>
       </c>
       <c r="F88" t="n">
-        <v>-5.197112214371864</v>
+        <v>-6.124395479799021</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.400995932301601</v>
+        <v>-5.1663114711103</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.279595014661272</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.98005333962135</v>
+        <v>-21.20074818047632</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.490789967860578</v>
+        <v>-6.444835656877228</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.156526032928386</v>
+        <v>-4.821836936274339</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2649272837747008</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.57372779703648</v>
+        <v>-22.83451738320702</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.560419203659181</v>
+        <v>-6.645871619244771</v>
       </c>
       <c r="G90" t="n">
-        <v>-6.413599792004508</v>
+        <v>-4.942174951296583</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3006374204876781</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.08436247281706</v>
+        <v>-24.21335421186931</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.541127182562334</v>
+        <v>-6.572081838602423</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.257845811238331</v>
+        <v>-4.742723027153922</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.3919348043096103</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.98872353861091</v>
+        <v>-25.89739218320563</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.541591638214691</v>
+        <v>-6.7291656292364</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.518351653135028</v>
+        <v>-4.996951384233498</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.5452909137985759</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.76090052574397</v>
+        <v>-27.52244917569949</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.411270271170206</v>
+        <v>-6.626340036811445</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.695563485040093</v>
+        <v>-5.05270072953693</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.7614556798045228</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.7142641073649</v>
+        <v>-29.18620999105528</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.657226428630963</v>
+        <v>-7.018399275483088</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.823455015671722</v>
+        <v>-5.139920612042693</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.042542635535182</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.94781667252873</v>
+        <v>-31.31633072694266</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.555671977991406</v>
+        <v>-6.950847867602925</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.895763427233394</v>
+        <v>-5.053634529848511</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.384507124165654</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.87446183162197</v>
+        <v>-33.15016542417782</v>
       </c>
       <c r="F96" t="n">
-        <v>-5.628366621095564</v>
+        <v>-7.202387270905699</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.049899146726622</v>
+        <v>-5.273102048104323</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.775012316487275</v>
       </c>
       <c r="E97" t="n">
-        <v>-37.91991474658811</v>
+        <v>-35.16630874297681</v>
       </c>
       <c r="F97" t="n">
-        <v>-5.745067215008824</v>
+        <v>-7.392036736280197</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.187969589655166</v>
+        <v>-5.140971748519079</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.206017316349172</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.05320355892525</v>
+        <v>-37.01762652876806</v>
       </c>
       <c r="F98" t="n">
-        <v>-5.593855121622012</v>
+        <v>-7.285915953226941</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.516207732686103</v>
+        <v>-5.440809650660106</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.646603401216796</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.36065590738593</v>
+        <v>-39.09125723481166</v>
       </c>
       <c r="F99" t="n">
-        <v>-5.599971269212523</v>
+        <v>-7.302479908492049</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.920582379655505</v>
+        <v>-5.759020440606999</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.092173264200145</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.9067822375791</v>
+        <v>-41.61871244778008</v>
       </c>
       <c r="F100" t="n">
-        <v>-5.353985777710563</v>
+        <v>-7.042257628993633</v>
       </c>
       <c r="G100" t="n">
-        <v>-8.405322521503255</v>
+        <v>-6.328966194131343</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.49246595165609</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.02481979299489</v>
+        <v>-43.70877266139995</v>
       </c>
       <c r="F101" t="n">
-        <v>-5.223175509979387</v>
+        <v>-6.929898473178194</v>
       </c>
       <c r="G101" t="n">
-        <v>-8.785550363556965</v>
+        <v>-6.958719168658658</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.865776678207203</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.49468006056762</v>
+        <v>-46.06827337696581</v>
       </c>
       <c r="F102" t="n">
-        <v>-5.31315279235809</v>
+        <v>-7.01220001477584</v>
       </c>
       <c r="G102" t="n">
-        <v>-9.175218877870686</v>
+        <v>-7.463753578010972</v>
       </c>
     </row>
   </sheetData>
